--- a/Parameters/technology_parameters.xlsx
+++ b/Parameters/technology_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mans3904/Documents/GitHub/GEOH2-private/Parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/ls2823_ic_ac_uk/Documents/0_Thesis/0relevant_repositories/GeoH2 Case Study Laos/Parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9439714-4816-924C-A763-65DCBB656576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{F9439714-4816-924C-A763-65DCBB656576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{535C59B3-121D-4488-BDF4-68F3B459C419}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16760" xr2:uid="{C2021D4B-F101-9446-A40F-20FC94B0106D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C2021D4B-F101-9446-A40F-20FC94B0106D}"/>
   </bookViews>
   <sheets>
     <sheet name="Water" sheetId="6" r:id="rId1"/>
@@ -64,18 +64,12 @@
     <t>H2 energy density (kWh/ kg H2)</t>
   </si>
   <si>
-    <t>Water specific cost (euros/m3)</t>
-  </si>
-  <si>
     <t>Ocean water treatment electricity demand (kWh/m3)</t>
   </si>
   <si>
     <t>Freshwater treatment electricity demand (kWh/m3)</t>
   </si>
   <si>
-    <t>Water transport cost (euros/100 km/m3)</t>
-  </si>
-  <si>
     <t>Pipeline construction allowed</t>
   </si>
   <si>
@@ -83,6 +77,12 @@
   </si>
   <si>
     <t>Water demand  (L/kg H2)</t>
+  </si>
+  <si>
+    <t>Water transport cost (USD/100 km/m3)</t>
+  </si>
+  <si>
+    <t>Water specific cost (USD/m3)</t>
   </si>
 </sst>
 </file>
@@ -146,9 +146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -186,7 +186,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -292,7 +292,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -434,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -444,55 +444,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F260B15A-B8F5-44FB-9EF4-FDC040BBCD83}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>21</v>
@@ -507,17 +507,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F43247-4FF6-844F-9F39-98135821A884}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -539,30 +539,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <f>659451*0.95</f>
-        <v>626478.44999999995</v>
+        <v>515563</v>
       </c>
       <c r="C3">
-        <f>7526*0.95</f>
-        <v>7149.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <f>507228*0.95</f>
-        <v>481866.6</v>
+        <v>515563</v>
       </c>
       <c r="C4">
-        <f>C3</f>
-        <v>7149.7</v>
+        <v>5155</v>
       </c>
     </row>
   </sheetData>
@@ -578,17 +574,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -596,17 +592,17 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
